--- a/Douban/movies.xlsx
+++ b/Douban/movies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大三上学期\软件工程\Movies\Douban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0582D7B2-C18B-451F-9215-27FE1C89EB24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B55231F-4075-4AF4-8207-0D6D57AFC479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6953,7 +6953,7 @@
   <dimension ref="A1:AA251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
